--- a/db/AiCity-71-越南小吃.xlsx
+++ b/db/AiCity-71-越南小吃.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90484FDA-19FB-9843-B94A-AFD82F631DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F8EF5-092F-764A-B339-F2FE9CEA52B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,14 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉河粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉河粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,42 +146,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什錦麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炒麵/炒飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炒麵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦仁炒飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋炒飯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滷肉飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉炒米線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒米線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,67 +170,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>綜合滷味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燙青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燙蝦子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炸雞翅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉炒青菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青菜炒蒜頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湯類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>貢丸湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大骨湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋花湯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青菜湯</t>
+    <t>牛肉河粉 PHO BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉河粉 PHO HEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉麵 MI HEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉麵 MI BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什錦麵 MI THAP CAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒麵 MI XAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>炒飯 COM XAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦仁炒飯 COM XAO TOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炒飯 COM XAO BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉炒飯 COM XAO HEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒飯 COM XAO TRUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滷肉飯 COM THIT KHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炒米線 BUN THIT XAO BO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豬肉炒米線 BUN THIT XAO HEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合滷味 PHA LAU THAP CAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燙青菜 RAU LUOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燙蝦子 COM LUOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸雞翅 CANH GA CHIEN NUOC MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炒青菜 BO XAO RAU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青菜炒蒜頭 RAU XAO TOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢丸湯 CANH THIT VIEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大骨湯 CANH XUONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋花湯 CANH TRUNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青菜湯 CANH RAU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -711,10 +722,10 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +739,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -742,13 +753,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -759,13 +770,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -776,13 +787,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -793,13 +804,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -810,13 +821,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -827,13 +835,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -844,13 +852,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -861,13 +869,13 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -878,13 +886,13 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -895,13 +903,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -912,13 +920,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -929,13 +937,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -946,13 +954,13 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -963,13 +971,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -980,13 +988,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -997,13 +1005,13 @@
         <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1014,13 +1022,13 @@
         <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1031,13 +1039,13 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1048,13 +1056,13 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1065,13 +1073,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1082,17 +1090,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="E28" s="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="E29" s="3"/>
@@ -1120,6 +1142,9 @@
     </row>
     <row r="37" spans="5:5">
       <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/db/AiCity-71-越南小吃.xlsx
+++ b/db/AiCity-71-越南小吃.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F8EF5-092F-764A-B339-F2FE9CEA52B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3260E-FCAD-1D43-A513-707819F9478B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,7 +681,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -826,6 +826,9 @@
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">

--- a/db/AiCity-71-越南小吃.xlsx
+++ b/db/AiCity-71-越南小吃.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3260E-FCAD-1D43-A513-707819F9478B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA73C44F-2BD9-564A-98DC-BAD5A5AEB1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
+    <workbookView xWindow="21880" yWindow="3060" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,102 +194,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉河粉 PHO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉河粉 PHO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉麵 MI HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉麵 MI BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什錦麵 MI THAP CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒麵 MI XAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
-    <t>炒飯 COM XAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦仁炒飯 COM XAO TOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒飯 COM XAO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒飯 COM XAO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋炒飯 COM XAO TRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滷肉飯 COM THIT KHO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒米線 BUN THIT XAO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒米線 BUN THIT XAO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綜合滷味 PHA LAU THAP CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燙青菜 RAU LUOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燙蝦子 COM LUOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸雞翅 CANH GA CHIEN NUOC MAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒青菜 BO XAO RAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青菜炒蒜頭 RAU XAO TOI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貢丸湯 CANH THIT VIEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大骨湯 CANH XUONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋花湯 CANH TRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青菜湯 CANH RAU</t>
+    <t>牛肉河粉 Phở bò</t>
+  </si>
+  <si>
+    <t>什錦麵 Mì các loại</t>
+  </si>
+  <si>
+    <t>炒麵 Mi xào</t>
+  </si>
+  <si>
+    <t>炒飯 Cơm chiên</t>
+  </si>
+  <si>
+    <t>蝦仁炒飯 Tôm chiên gạo</t>
+  </si>
+  <si>
+    <t>牛肉炒飯 Cơm rang thịt bò</t>
+  </si>
+  <si>
+    <t>豬肉炒飯 Cơm sườn chiên</t>
+  </si>
+  <si>
+    <t>蛋炒飯 Cơm chiên trứng</t>
+  </si>
+  <si>
+    <t>滷肉飯 Cơm thịt heo kho</t>
+  </si>
+  <si>
+    <t>牛肉炒米線 Mì xào thịt bò</t>
+  </si>
+  <si>
+    <t>豬肉炒米線 Mì xào thịt heo</t>
+  </si>
+  <si>
+    <t>綜合滷味 Lo-mei toàn diện</t>
+  </si>
+  <si>
+    <t>燙青菜 Rau nóng</t>
+  </si>
+  <si>
+    <t>燙蝦子 Tôm chần</t>
+  </si>
+  <si>
+    <t>炸雞翅 Cánh gà chiên</t>
+  </si>
+  <si>
+    <t>牛肉炒青菜 Rau xào thịt bò</t>
+  </si>
+  <si>
+    <t>青菜炒蒜頭 Rau ngổ xào tỏi</t>
+  </si>
+  <si>
+    <t>貢丸湯 Súp bóng cống</t>
+  </si>
+  <si>
+    <t>大骨湯 Súp xương lớn</t>
+  </si>
+  <si>
+    <t>蛋花湯 Súp trứng đánh</t>
+  </si>
+  <si>
+    <t>青菜湯 Súp rau</t>
+  </si>
+  <si>
+    <t>豬肉河粉 Phở heo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>豬肉麵  Mì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> heo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉麵 Mì bò</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +318,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +357,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +679,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
@@ -689,7 +690,7 @@
     <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="67" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -721,8 +722,8 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -738,8 +739,8 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -755,8 +756,8 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -772,8 +773,8 @@
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -789,8 +790,8 @@
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -806,8 +807,8 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -823,8 +824,8 @@
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -840,8 +841,8 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -857,8 +858,8 @@
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -874,8 +875,8 @@
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -891,8 +892,8 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -908,8 +909,8 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -925,8 +926,8 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -942,8 +943,8 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
@@ -959,8 +960,8 @@
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
@@ -976,8 +977,8 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>40</v>
@@ -993,8 +994,8 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>41</v>
@@ -1010,8 +1011,8 @@
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
@@ -1027,8 +1028,8 @@
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
@@ -1044,8 +1045,8 @@
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
@@ -1061,8 +1062,8 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
@@ -1078,8 +1079,8 @@
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
@@ -1095,8 +1096,8 @@
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>68</v>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
@@ -1104,7 +1105,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1112,8 +1113,8 @@
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>

--- a/db/AiCity-71-越南小吃.xlsx
+++ b/db/AiCity-71-越南小吃.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C135F-C695-114F-97A9-B1AA976B7AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73A449-3497-B241-AD6B-3A9DB2489240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1280" windowWidth="19960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="19960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -1311,6 +1311,10 @@
       </rPr>
       <t xml:space="preserve"> Canh  rau</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1421,6 +1425,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1728,17 +1735,18 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="5"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="8.83203125" style="5"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
     <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
@@ -1751,7 +1759,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1771,7 +1779,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>80</v>
       </c>
       <c r="D2" s="1">
@@ -1791,7 +1799,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>70</v>
       </c>
       <c r="D3" s="1">
@@ -1811,7 +1819,7 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>80</v>
       </c>
       <c r="D4" s="1">
@@ -1831,7 +1839,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>70</v>
       </c>
       <c r="D5" s="1">
@@ -1851,7 +1859,7 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>80</v>
       </c>
       <c r="D6" s="1">
@@ -1871,7 +1879,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8">
         <v>70</v>
       </c>
       <c r="D7" s="1">
@@ -1891,7 +1899,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>70</v>
       </c>
       <c r="D8" s="1">
@@ -1911,7 +1919,7 @@
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <v>70</v>
       </c>
       <c r="D9" s="1">
@@ -1931,7 +1939,7 @@
       <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>70</v>
       </c>
       <c r="D10" s="1">
@@ -1951,7 +1959,7 @@
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <v>70</v>
       </c>
       <c r="D11" s="1">
@@ -1971,7 +1979,7 @@
       <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <v>70</v>
       </c>
       <c r="D12" s="1">
@@ -1991,7 +1999,7 @@
       <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <v>60</v>
       </c>
       <c r="D13" s="1">
@@ -2011,7 +2019,7 @@
       <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8">
         <v>70</v>
       </c>
       <c r="D14" s="1">
@@ -2031,7 +2039,7 @@
       <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>40</v>
       </c>
       <c r="D15" s="1">
@@ -2051,7 +2059,9 @@
       <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
@@ -2069,7 +2079,7 @@
       <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8">
         <v>50</v>
       </c>
       <c r="D17" s="1">
@@ -2089,7 +2099,7 @@
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>30</v>
       </c>
       <c r="D18" s="1">
@@ -2109,7 +2119,7 @@
       <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8">
         <v>200</v>
       </c>
       <c r="D19" s="1">
@@ -2129,7 +2139,7 @@
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8">
         <v>150</v>
       </c>
       <c r="D20" s="1">
@@ -2149,7 +2159,7 @@
       <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <v>100</v>
       </c>
       <c r="D21" s="1">
@@ -2169,7 +2179,7 @@
       <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8">
         <v>80</v>
       </c>
       <c r="D22" s="1">
@@ -2189,7 +2199,9 @@
       <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
@@ -2207,7 +2219,7 @@
       <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
         <v>30</v>
       </c>
       <c r="D24" s="1">
@@ -2227,7 +2239,7 @@
       <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
         <v>50</v>
       </c>
       <c r="D25" s="1">
@@ -2247,7 +2259,7 @@
       <c r="B26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
         <v>30</v>
       </c>
       <c r="D26" s="1">
@@ -2267,7 +2279,7 @@
       <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="8">
         <v>30</v>
       </c>
       <c r="D27" s="1">
